--- a/bd/PROJETOS_IIRSA_CONCLUIDOS_2000-30_JULHO_2018_-_PARA_TABLEAU02.xlsx
+++ b/bd/PROJETOS_IIRSA_CONCLUIDOS_2000-30_JULHO_2018_-_PARA_TABLEAU02.xlsx
@@ -22,31 +22,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="377">
   <si>
-    <t xml:space="preserve">FIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIXO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOME PROJETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRUPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETAPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVESTIMENTOS (US$)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIGEM INVESTIMENTO</t>
+    <t xml:space="preserve">fim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eixo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nome_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">investimento_total_uss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonte_investimento</t>
   </si>
   <si>
     <t xml:space="preserve">Tesouro Nacional</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">ARGENTINA</t>
   </si>
   <si>
-    <t xml:space="preserve">CAF e Tesouro Nacional</t>
+    <t xml:space="preserve">CAF,Tesouro Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">GUY10</t>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">ECUADOR, PERU</t>
   </si>
   <si>
-    <t xml:space="preserve">UE e Tesouro Nacional</t>
+    <t xml:space="preserve">UE,Tesouro Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">AMA16</t>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">CARRETERA TARAPOTO - YURIMAGUAS</t>
   </si>
   <si>
-    <t xml:space="preserve">Tesouro Nacional, BID e Privado</t>
+    <t xml:space="preserve">Tesouro Nacional, BID,Privado</t>
   </si>
   <si>
     <t xml:space="preserve">Hidrovía Paraguay-Paraná</t>
@@ -379,7 +379,7 @@
     <t xml:space="preserve">CONSTRUCCIÓN DEL ANILLO VIAL SAN PABLO (TRAMO SUR)</t>
   </si>
   <si>
-    <t xml:space="preserve">Tesouro Nacional e Tesouro Municipal</t>
+    <t xml:space="preserve">Tesouro Nacional,Tesouro Municipal</t>
   </si>
   <si>
     <t xml:space="preserve">MCC13</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve">CARRETERA SULLANA - EL ALAMOR</t>
   </si>
   <si>
-    <t xml:space="preserve">BID e Tesouro Nacional</t>
+    <t xml:space="preserve">BID,Tesouro Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">MCC101</t>
@@ -592,7 +592,7 @@
     <t xml:space="preserve">LÍNEA DE TRANSMISIÓN 500 KV (ITAIPÚ - VILLA HAYES)</t>
   </si>
   <si>
-    <t xml:space="preserve">Tesouro Nacional e FOCEM</t>
+    <t xml:space="preserve">Tesouro Nacional,FOCEM</t>
   </si>
   <si>
     <t xml:space="preserve">AMA87</t>
@@ -619,7 +619,7 @@
     <t xml:space="preserve">ADECUACIÓN DEL CORREDOR RÍO BRANCO - MONTEVIDEO - COLONIA - NUEVA PALMIRA: RUTAS N° 1, 11, 8, 17, 18 Y 26, RUTAS 23 Y 12</t>
   </si>
   <si>
-    <t xml:space="preserve">BID, CAF, Banco Muncial, Tesouro Nacional, FOCEM e Privado</t>
+    <t xml:space="preserve">BID, CAF, Banco Muncial, Tesouro Nacional, FOCEM,Privado</t>
   </si>
   <si>
     <t xml:space="preserve">IOC69</t>
@@ -670,7 +670,7 @@
     <t xml:space="preserve">LÍNEA DE TRANSMISIÓN ENTRE LAS DOS CENTRALES HIDROELÉCTRICAS DEL RÍO MADEIRA Y EL SISTEMA CENTRAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Tesouro Nacional e Privado</t>
+    <t xml:space="preserve">Tesouro Nacional,Privado</t>
   </si>
   <si>
     <t xml:space="preserve">IOC67</t>
@@ -844,7 +844,7 @@
     <t xml:space="preserve">CONSTRUCCIÓN DE LA CARRETERA PAILÓN - SAN JOSÉ - PUERTO SUÁREZ</t>
   </si>
   <si>
-    <t xml:space="preserve">BID CAF UE e Bancos Privados</t>
+    <t xml:space="preserve">BID CAF UE,Bancos Privados</t>
   </si>
   <si>
     <t xml:space="preserve">CONSTRUCCIÓN DE PUERTO SECO PRÓXIMO AL PUERTO DE MONTEVIDEO</t>
@@ -907,7 +907,7 @@
     <t xml:space="preserve">PAVIMENTACIÓN POTOSÍ - TUPIZA - VILLAZÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">CAF e BNDES</t>
+    <t xml:space="preserve">CAF,BNDES</t>
   </si>
   <si>
     <t xml:space="preserve">MCC18</t>
@@ -985,7 +985,7 @@
     <t xml:space="preserve">COMPLEJO HIDROELÉCTRICO DEL RÍO MADEIRA (HIDROELÉCTRICA SANTO ANTONIO E HIDROELÉCTRICA JIRAU)</t>
   </si>
   <si>
-    <t xml:space="preserve">Tesouro Nacional e Bancos Privados</t>
+    <t xml:space="preserve">Tesouro Nacional,Bancos Privados</t>
   </si>
   <si>
     <t xml:space="preserve">MCC04</t>
@@ -1051,7 +1051,7 @@
     <t xml:space="preserve">MEJORAMIENTO DE LA VÍA PUERTO BOLÍVAR - SANTA ROSA - BALSAS - CHAGUARPAMBA - LOJA - ZAMORA - YANTZAZA - EL PANGUI - GUALAQUIZA - GRAL. LEÓNIDAS PLAZA - MÉNDEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">Tesouro Nacional e CAF</t>
+    <t xml:space="preserve">Tesouro Nacional,CAF</t>
   </si>
   <si>
     <t xml:space="preserve">MEJORAMIENTO DEL AEROPUERTO DE ARICA</t>
@@ -1525,15 +1525,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="I158" activeCellId="0" sqref="I158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.71"/>
@@ -1557,7 +1557,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="3" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="891" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="541" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5032,6 +5032,356 @@
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
+      <c r="TU103" s="0"/>
+      <c r="TV103" s="0"/>
+      <c r="TW103" s="0"/>
+      <c r="TX103" s="0"/>
+      <c r="TY103" s="0"/>
+      <c r="TZ103" s="0"/>
+      <c r="UA103" s="0"/>
+      <c r="UB103" s="0"/>
+      <c r="UC103" s="0"/>
+      <c r="UD103" s="0"/>
+      <c r="UE103" s="0"/>
+      <c r="UF103" s="0"/>
+      <c r="UG103" s="0"/>
+      <c r="UH103" s="0"/>
+      <c r="UI103" s="0"/>
+      <c r="UJ103" s="0"/>
+      <c r="UK103" s="0"/>
+      <c r="UL103" s="0"/>
+      <c r="UM103" s="0"/>
+      <c r="UN103" s="0"/>
+      <c r="UO103" s="0"/>
+      <c r="UP103" s="0"/>
+      <c r="UQ103" s="0"/>
+      <c r="UR103" s="0"/>
+      <c r="US103" s="0"/>
+      <c r="UT103" s="0"/>
+      <c r="UU103" s="0"/>
+      <c r="UV103" s="0"/>
+      <c r="UW103" s="0"/>
+      <c r="UX103" s="0"/>
+      <c r="UY103" s="0"/>
+      <c r="UZ103" s="0"/>
+      <c r="VA103" s="0"/>
+      <c r="VB103" s="0"/>
+      <c r="VC103" s="0"/>
+      <c r="VD103" s="0"/>
+      <c r="VE103" s="0"/>
+      <c r="VF103" s="0"/>
+      <c r="VG103" s="0"/>
+      <c r="VH103" s="0"/>
+      <c r="VI103" s="0"/>
+      <c r="VJ103" s="0"/>
+      <c r="VK103" s="0"/>
+      <c r="VL103" s="0"/>
+      <c r="VM103" s="0"/>
+      <c r="VN103" s="0"/>
+      <c r="VO103" s="0"/>
+      <c r="VP103" s="0"/>
+      <c r="VQ103" s="0"/>
+      <c r="VR103" s="0"/>
+      <c r="VS103" s="0"/>
+      <c r="VT103" s="0"/>
+      <c r="VU103" s="0"/>
+      <c r="VV103" s="0"/>
+      <c r="VW103" s="0"/>
+      <c r="VX103" s="0"/>
+      <c r="VY103" s="0"/>
+      <c r="VZ103" s="0"/>
+      <c r="WA103" s="0"/>
+      <c r="WB103" s="0"/>
+      <c r="WC103" s="0"/>
+      <c r="WD103" s="0"/>
+      <c r="WE103" s="0"/>
+      <c r="WF103" s="0"/>
+      <c r="WG103" s="0"/>
+      <c r="WH103" s="0"/>
+      <c r="WI103" s="0"/>
+      <c r="WJ103" s="0"/>
+      <c r="WK103" s="0"/>
+      <c r="WL103" s="0"/>
+      <c r="WM103" s="0"/>
+      <c r="WN103" s="0"/>
+      <c r="WO103" s="0"/>
+      <c r="WP103" s="0"/>
+      <c r="WQ103" s="0"/>
+      <c r="WR103" s="0"/>
+      <c r="WS103" s="0"/>
+      <c r="WT103" s="0"/>
+      <c r="WU103" s="0"/>
+      <c r="WV103" s="0"/>
+      <c r="WW103" s="0"/>
+      <c r="WX103" s="0"/>
+      <c r="WY103" s="0"/>
+      <c r="WZ103" s="0"/>
+      <c r="XA103" s="0"/>
+      <c r="XB103" s="0"/>
+      <c r="XC103" s="0"/>
+      <c r="XD103" s="0"/>
+      <c r="XE103" s="0"/>
+      <c r="XF103" s="0"/>
+      <c r="XG103" s="0"/>
+      <c r="XH103" s="0"/>
+      <c r="XI103" s="0"/>
+      <c r="XJ103" s="0"/>
+      <c r="XK103" s="0"/>
+      <c r="XL103" s="0"/>
+      <c r="XM103" s="0"/>
+      <c r="XN103" s="0"/>
+      <c r="XO103" s="0"/>
+      <c r="XP103" s="0"/>
+      <c r="XQ103" s="0"/>
+      <c r="XR103" s="0"/>
+      <c r="XS103" s="0"/>
+      <c r="XT103" s="0"/>
+      <c r="XU103" s="0"/>
+      <c r="XV103" s="0"/>
+      <c r="XW103" s="0"/>
+      <c r="XX103" s="0"/>
+      <c r="XY103" s="0"/>
+      <c r="XZ103" s="0"/>
+      <c r="YA103" s="0"/>
+      <c r="YB103" s="0"/>
+      <c r="YC103" s="0"/>
+      <c r="YD103" s="0"/>
+      <c r="YE103" s="0"/>
+      <c r="YF103" s="0"/>
+      <c r="YG103" s="0"/>
+      <c r="YH103" s="0"/>
+      <c r="YI103" s="0"/>
+      <c r="YJ103" s="0"/>
+      <c r="YK103" s="0"/>
+      <c r="YL103" s="0"/>
+      <c r="YM103" s="0"/>
+      <c r="YN103" s="0"/>
+      <c r="YO103" s="0"/>
+      <c r="YP103" s="0"/>
+      <c r="YQ103" s="0"/>
+      <c r="YR103" s="0"/>
+      <c r="YS103" s="0"/>
+      <c r="YT103" s="0"/>
+      <c r="YU103" s="0"/>
+      <c r="YV103" s="0"/>
+      <c r="YW103" s="0"/>
+      <c r="YX103" s="0"/>
+      <c r="YY103" s="0"/>
+      <c r="YZ103" s="0"/>
+      <c r="ZA103" s="0"/>
+      <c r="ZB103" s="0"/>
+      <c r="ZC103" s="0"/>
+      <c r="ZD103" s="0"/>
+      <c r="ZE103" s="0"/>
+      <c r="ZF103" s="0"/>
+      <c r="ZG103" s="0"/>
+      <c r="ZH103" s="0"/>
+      <c r="ZI103" s="0"/>
+      <c r="ZJ103" s="0"/>
+      <c r="ZK103" s="0"/>
+      <c r="ZL103" s="0"/>
+      <c r="ZM103" s="0"/>
+      <c r="ZN103" s="0"/>
+      <c r="ZO103" s="0"/>
+      <c r="ZP103" s="0"/>
+      <c r="ZQ103" s="0"/>
+      <c r="ZR103" s="0"/>
+      <c r="ZS103" s="0"/>
+      <c r="ZT103" s="0"/>
+      <c r="ZU103" s="0"/>
+      <c r="ZV103" s="0"/>
+      <c r="ZW103" s="0"/>
+      <c r="ZX103" s="0"/>
+      <c r="ZY103" s="0"/>
+      <c r="ZZ103" s="0"/>
+      <c r="AAA103" s="0"/>
+      <c r="AAB103" s="0"/>
+      <c r="AAC103" s="0"/>
+      <c r="AAD103" s="0"/>
+      <c r="AAE103" s="0"/>
+      <c r="AAF103" s="0"/>
+      <c r="AAG103" s="0"/>
+      <c r="AAH103" s="0"/>
+      <c r="AAI103" s="0"/>
+      <c r="AAJ103" s="0"/>
+      <c r="AAK103" s="0"/>
+      <c r="AAL103" s="0"/>
+      <c r="AAM103" s="0"/>
+      <c r="AAN103" s="0"/>
+      <c r="AAO103" s="0"/>
+      <c r="AAP103" s="0"/>
+      <c r="AAQ103" s="0"/>
+      <c r="AAR103" s="0"/>
+      <c r="AAS103" s="0"/>
+      <c r="AAT103" s="0"/>
+      <c r="AAU103" s="0"/>
+      <c r="AAV103" s="0"/>
+      <c r="AAW103" s="0"/>
+      <c r="AAX103" s="0"/>
+      <c r="AAY103" s="0"/>
+      <c r="AAZ103" s="0"/>
+      <c r="ABA103" s="0"/>
+      <c r="ABB103" s="0"/>
+      <c r="ABC103" s="0"/>
+      <c r="ABD103" s="0"/>
+      <c r="ABE103" s="0"/>
+      <c r="ABF103" s="0"/>
+      <c r="ABG103" s="0"/>
+      <c r="ABH103" s="0"/>
+      <c r="ABI103" s="0"/>
+      <c r="ABJ103" s="0"/>
+      <c r="ABK103" s="0"/>
+      <c r="ABL103" s="0"/>
+      <c r="ABM103" s="0"/>
+      <c r="ABN103" s="0"/>
+      <c r="ABO103" s="0"/>
+      <c r="ABP103" s="0"/>
+      <c r="ABQ103" s="0"/>
+      <c r="ABR103" s="0"/>
+      <c r="ABS103" s="0"/>
+      <c r="ABT103" s="0"/>
+      <c r="ABU103" s="0"/>
+      <c r="ABV103" s="0"/>
+      <c r="ABW103" s="0"/>
+      <c r="ABX103" s="0"/>
+      <c r="ABY103" s="0"/>
+      <c r="ABZ103" s="0"/>
+      <c r="ACA103" s="0"/>
+      <c r="ACB103" s="0"/>
+      <c r="ACC103" s="0"/>
+      <c r="ACD103" s="0"/>
+      <c r="ACE103" s="0"/>
+      <c r="ACF103" s="0"/>
+      <c r="ACG103" s="0"/>
+      <c r="ACH103" s="0"/>
+      <c r="ACI103" s="0"/>
+      <c r="ACJ103" s="0"/>
+      <c r="ACK103" s="0"/>
+      <c r="ACL103" s="0"/>
+      <c r="ACM103" s="0"/>
+      <c r="ACN103" s="0"/>
+      <c r="ACO103" s="0"/>
+      <c r="ACP103" s="0"/>
+      <c r="ACQ103" s="0"/>
+      <c r="ACR103" s="0"/>
+      <c r="ACS103" s="0"/>
+      <c r="ACT103" s="0"/>
+      <c r="ACU103" s="0"/>
+      <c r="ACV103" s="0"/>
+      <c r="ACW103" s="0"/>
+      <c r="ACX103" s="0"/>
+      <c r="ACY103" s="0"/>
+      <c r="ACZ103" s="0"/>
+      <c r="ADA103" s="0"/>
+      <c r="ADB103" s="0"/>
+      <c r="ADC103" s="0"/>
+      <c r="ADD103" s="0"/>
+      <c r="ADE103" s="0"/>
+      <c r="ADF103" s="0"/>
+      <c r="ADG103" s="0"/>
+      <c r="ADH103" s="0"/>
+      <c r="ADI103" s="0"/>
+      <c r="ADJ103" s="0"/>
+      <c r="ADK103" s="0"/>
+      <c r="ADL103" s="0"/>
+      <c r="ADM103" s="0"/>
+      <c r="ADN103" s="0"/>
+      <c r="ADO103" s="0"/>
+      <c r="ADP103" s="0"/>
+      <c r="ADQ103" s="0"/>
+      <c r="ADR103" s="0"/>
+      <c r="ADS103" s="0"/>
+      <c r="ADT103" s="0"/>
+      <c r="ADU103" s="0"/>
+      <c r="ADV103" s="0"/>
+      <c r="ADW103" s="0"/>
+      <c r="ADX103" s="0"/>
+      <c r="ADY103" s="0"/>
+      <c r="ADZ103" s="0"/>
+      <c r="AEA103" s="0"/>
+      <c r="AEB103" s="0"/>
+      <c r="AEC103" s="0"/>
+      <c r="AED103" s="0"/>
+      <c r="AEE103" s="0"/>
+      <c r="AEF103" s="0"/>
+      <c r="AEG103" s="0"/>
+      <c r="AEH103" s="0"/>
+      <c r="AEI103" s="0"/>
+      <c r="AEJ103" s="0"/>
+      <c r="AEK103" s="0"/>
+      <c r="AEL103" s="0"/>
+      <c r="AEM103" s="0"/>
+      <c r="AEN103" s="0"/>
+      <c r="AEO103" s="0"/>
+      <c r="AEP103" s="0"/>
+      <c r="AEQ103" s="0"/>
+      <c r="AER103" s="0"/>
+      <c r="AES103" s="0"/>
+      <c r="AET103" s="0"/>
+      <c r="AEU103" s="0"/>
+      <c r="AEV103" s="0"/>
+      <c r="AEW103" s="0"/>
+      <c r="AEX103" s="0"/>
+      <c r="AEY103" s="0"/>
+      <c r="AEZ103" s="0"/>
+      <c r="AFA103" s="0"/>
+      <c r="AFB103" s="0"/>
+      <c r="AFC103" s="0"/>
+      <c r="AFD103" s="0"/>
+      <c r="AFE103" s="0"/>
+      <c r="AFF103" s="0"/>
+      <c r="AFG103" s="0"/>
+      <c r="AFH103" s="0"/>
+      <c r="AFI103" s="0"/>
+      <c r="AFJ103" s="0"/>
+      <c r="AFK103" s="0"/>
+      <c r="AFL103" s="0"/>
+      <c r="AFM103" s="0"/>
+      <c r="AFN103" s="0"/>
+      <c r="AFO103" s="0"/>
+      <c r="AFP103" s="0"/>
+      <c r="AFQ103" s="0"/>
+      <c r="AFR103" s="0"/>
+      <c r="AFS103" s="0"/>
+      <c r="AFT103" s="0"/>
+      <c r="AFU103" s="0"/>
+      <c r="AFV103" s="0"/>
+      <c r="AFW103" s="0"/>
+      <c r="AFX103" s="0"/>
+      <c r="AFY103" s="0"/>
+      <c r="AFZ103" s="0"/>
+      <c r="AGA103" s="0"/>
+      <c r="AGB103" s="0"/>
+      <c r="AGC103" s="0"/>
+      <c r="AGD103" s="0"/>
+      <c r="AGE103" s="0"/>
+      <c r="AGF103" s="0"/>
+      <c r="AGG103" s="0"/>
+      <c r="AGH103" s="0"/>
+      <c r="AGI103" s="0"/>
+      <c r="AGJ103" s="0"/>
+      <c r="AGK103" s="0"/>
+      <c r="AGL103" s="0"/>
+      <c r="AGM103" s="0"/>
+      <c r="AGN103" s="0"/>
+      <c r="AGO103" s="0"/>
+      <c r="AGP103" s="0"/>
+      <c r="AGQ103" s="0"/>
+      <c r="AGR103" s="0"/>
+      <c r="AGS103" s="0"/>
+      <c r="AGT103" s="0"/>
+      <c r="AGU103" s="0"/>
+      <c r="AGV103" s="0"/>
+      <c r="AGW103" s="0"/>
+      <c r="AGX103" s="0"/>
+      <c r="AGY103" s="0"/>
+      <c r="AGZ103" s="0"/>
+      <c r="AHA103" s="0"/>
+      <c r="AHB103" s="0"/>
+      <c r="AHC103" s="0"/>
+      <c r="AHD103" s="0"/>
+      <c r="AHE103" s="0"/>
+      <c r="AHF103" s="0"/>
       <c r="AHG103" s="0"/>
       <c r="AHH103" s="0"/>
       <c r="AHI103" s="0"/>
@@ -5211,6 +5561,356 @@
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
+      <c r="TU104" s="0"/>
+      <c r="TV104" s="0"/>
+      <c r="TW104" s="0"/>
+      <c r="TX104" s="0"/>
+      <c r="TY104" s="0"/>
+      <c r="TZ104" s="0"/>
+      <c r="UA104" s="0"/>
+      <c r="UB104" s="0"/>
+      <c r="UC104" s="0"/>
+      <c r="UD104" s="0"/>
+      <c r="UE104" s="0"/>
+      <c r="UF104" s="0"/>
+      <c r="UG104" s="0"/>
+      <c r="UH104" s="0"/>
+      <c r="UI104" s="0"/>
+      <c r="UJ104" s="0"/>
+      <c r="UK104" s="0"/>
+      <c r="UL104" s="0"/>
+      <c r="UM104" s="0"/>
+      <c r="UN104" s="0"/>
+      <c r="UO104" s="0"/>
+      <c r="UP104" s="0"/>
+      <c r="UQ104" s="0"/>
+      <c r="UR104" s="0"/>
+      <c r="US104" s="0"/>
+      <c r="UT104" s="0"/>
+      <c r="UU104" s="0"/>
+      <c r="UV104" s="0"/>
+      <c r="UW104" s="0"/>
+      <c r="UX104" s="0"/>
+      <c r="UY104" s="0"/>
+      <c r="UZ104" s="0"/>
+      <c r="VA104" s="0"/>
+      <c r="VB104" s="0"/>
+      <c r="VC104" s="0"/>
+      <c r="VD104" s="0"/>
+      <c r="VE104" s="0"/>
+      <c r="VF104" s="0"/>
+      <c r="VG104" s="0"/>
+      <c r="VH104" s="0"/>
+      <c r="VI104" s="0"/>
+      <c r="VJ104" s="0"/>
+      <c r="VK104" s="0"/>
+      <c r="VL104" s="0"/>
+      <c r="VM104" s="0"/>
+      <c r="VN104" s="0"/>
+      <c r="VO104" s="0"/>
+      <c r="VP104" s="0"/>
+      <c r="VQ104" s="0"/>
+      <c r="VR104" s="0"/>
+      <c r="VS104" s="0"/>
+      <c r="VT104" s="0"/>
+      <c r="VU104" s="0"/>
+      <c r="VV104" s="0"/>
+      <c r="VW104" s="0"/>
+      <c r="VX104" s="0"/>
+      <c r="VY104" s="0"/>
+      <c r="VZ104" s="0"/>
+      <c r="WA104" s="0"/>
+      <c r="WB104" s="0"/>
+      <c r="WC104" s="0"/>
+      <c r="WD104" s="0"/>
+      <c r="WE104" s="0"/>
+      <c r="WF104" s="0"/>
+      <c r="WG104" s="0"/>
+      <c r="WH104" s="0"/>
+      <c r="WI104" s="0"/>
+      <c r="WJ104" s="0"/>
+      <c r="WK104" s="0"/>
+      <c r="WL104" s="0"/>
+      <c r="WM104" s="0"/>
+      <c r="WN104" s="0"/>
+      <c r="WO104" s="0"/>
+      <c r="WP104" s="0"/>
+      <c r="WQ104" s="0"/>
+      <c r="WR104" s="0"/>
+      <c r="WS104" s="0"/>
+      <c r="WT104" s="0"/>
+      <c r="WU104" s="0"/>
+      <c r="WV104" s="0"/>
+      <c r="WW104" s="0"/>
+      <c r="WX104" s="0"/>
+      <c r="WY104" s="0"/>
+      <c r="WZ104" s="0"/>
+      <c r="XA104" s="0"/>
+      <c r="XB104" s="0"/>
+      <c r="XC104" s="0"/>
+      <c r="XD104" s="0"/>
+      <c r="XE104" s="0"/>
+      <c r="XF104" s="0"/>
+      <c r="XG104" s="0"/>
+      <c r="XH104" s="0"/>
+      <c r="XI104" s="0"/>
+      <c r="XJ104" s="0"/>
+      <c r="XK104" s="0"/>
+      <c r="XL104" s="0"/>
+      <c r="XM104" s="0"/>
+      <c r="XN104" s="0"/>
+      <c r="XO104" s="0"/>
+      <c r="XP104" s="0"/>
+      <c r="XQ104" s="0"/>
+      <c r="XR104" s="0"/>
+      <c r="XS104" s="0"/>
+      <c r="XT104" s="0"/>
+      <c r="XU104" s="0"/>
+      <c r="XV104" s="0"/>
+      <c r="XW104" s="0"/>
+      <c r="XX104" s="0"/>
+      <c r="XY104" s="0"/>
+      <c r="XZ104" s="0"/>
+      <c r="YA104" s="0"/>
+      <c r="YB104" s="0"/>
+      <c r="YC104" s="0"/>
+      <c r="YD104" s="0"/>
+      <c r="YE104" s="0"/>
+      <c r="YF104" s="0"/>
+      <c r="YG104" s="0"/>
+      <c r="YH104" s="0"/>
+      <c r="YI104" s="0"/>
+      <c r="YJ104" s="0"/>
+      <c r="YK104" s="0"/>
+      <c r="YL104" s="0"/>
+      <c r="YM104" s="0"/>
+      <c r="YN104" s="0"/>
+      <c r="YO104" s="0"/>
+      <c r="YP104" s="0"/>
+      <c r="YQ104" s="0"/>
+      <c r="YR104" s="0"/>
+      <c r="YS104" s="0"/>
+      <c r="YT104" s="0"/>
+      <c r="YU104" s="0"/>
+      <c r="YV104" s="0"/>
+      <c r="YW104" s="0"/>
+      <c r="YX104" s="0"/>
+      <c r="YY104" s="0"/>
+      <c r="YZ104" s="0"/>
+      <c r="ZA104" s="0"/>
+      <c r="ZB104" s="0"/>
+      <c r="ZC104" s="0"/>
+      <c r="ZD104" s="0"/>
+      <c r="ZE104" s="0"/>
+      <c r="ZF104" s="0"/>
+      <c r="ZG104" s="0"/>
+      <c r="ZH104" s="0"/>
+      <c r="ZI104" s="0"/>
+      <c r="ZJ104" s="0"/>
+      <c r="ZK104" s="0"/>
+      <c r="ZL104" s="0"/>
+      <c r="ZM104" s="0"/>
+      <c r="ZN104" s="0"/>
+      <c r="ZO104" s="0"/>
+      <c r="ZP104" s="0"/>
+      <c r="ZQ104" s="0"/>
+      <c r="ZR104" s="0"/>
+      <c r="ZS104" s="0"/>
+      <c r="ZT104" s="0"/>
+      <c r="ZU104" s="0"/>
+      <c r="ZV104" s="0"/>
+      <c r="ZW104" s="0"/>
+      <c r="ZX104" s="0"/>
+      <c r="ZY104" s="0"/>
+      <c r="ZZ104" s="0"/>
+      <c r="AAA104" s="0"/>
+      <c r="AAB104" s="0"/>
+      <c r="AAC104" s="0"/>
+      <c r="AAD104" s="0"/>
+      <c r="AAE104" s="0"/>
+      <c r="AAF104" s="0"/>
+      <c r="AAG104" s="0"/>
+      <c r="AAH104" s="0"/>
+      <c r="AAI104" s="0"/>
+      <c r="AAJ104" s="0"/>
+      <c r="AAK104" s="0"/>
+      <c r="AAL104" s="0"/>
+      <c r="AAM104" s="0"/>
+      <c r="AAN104" s="0"/>
+      <c r="AAO104" s="0"/>
+      <c r="AAP104" s="0"/>
+      <c r="AAQ104" s="0"/>
+      <c r="AAR104" s="0"/>
+      <c r="AAS104" s="0"/>
+      <c r="AAT104" s="0"/>
+      <c r="AAU104" s="0"/>
+      <c r="AAV104" s="0"/>
+      <c r="AAW104" s="0"/>
+      <c r="AAX104" s="0"/>
+      <c r="AAY104" s="0"/>
+      <c r="AAZ104" s="0"/>
+      <c r="ABA104" s="0"/>
+      <c r="ABB104" s="0"/>
+      <c r="ABC104" s="0"/>
+      <c r="ABD104" s="0"/>
+      <c r="ABE104" s="0"/>
+      <c r="ABF104" s="0"/>
+      <c r="ABG104" s="0"/>
+      <c r="ABH104" s="0"/>
+      <c r="ABI104" s="0"/>
+      <c r="ABJ104" s="0"/>
+      <c r="ABK104" s="0"/>
+      <c r="ABL104" s="0"/>
+      <c r="ABM104" s="0"/>
+      <c r="ABN104" s="0"/>
+      <c r="ABO104" s="0"/>
+      <c r="ABP104" s="0"/>
+      <c r="ABQ104" s="0"/>
+      <c r="ABR104" s="0"/>
+      <c r="ABS104" s="0"/>
+      <c r="ABT104" s="0"/>
+      <c r="ABU104" s="0"/>
+      <c r="ABV104" s="0"/>
+      <c r="ABW104" s="0"/>
+      <c r="ABX104" s="0"/>
+      <c r="ABY104" s="0"/>
+      <c r="ABZ104" s="0"/>
+      <c r="ACA104" s="0"/>
+      <c r="ACB104" s="0"/>
+      <c r="ACC104" s="0"/>
+      <c r="ACD104" s="0"/>
+      <c r="ACE104" s="0"/>
+      <c r="ACF104" s="0"/>
+      <c r="ACG104" s="0"/>
+      <c r="ACH104" s="0"/>
+      <c r="ACI104" s="0"/>
+      <c r="ACJ104" s="0"/>
+      <c r="ACK104" s="0"/>
+      <c r="ACL104" s="0"/>
+      <c r="ACM104" s="0"/>
+      <c r="ACN104" s="0"/>
+      <c r="ACO104" s="0"/>
+      <c r="ACP104" s="0"/>
+      <c r="ACQ104" s="0"/>
+      <c r="ACR104" s="0"/>
+      <c r="ACS104" s="0"/>
+      <c r="ACT104" s="0"/>
+      <c r="ACU104" s="0"/>
+      <c r="ACV104" s="0"/>
+      <c r="ACW104" s="0"/>
+      <c r="ACX104" s="0"/>
+      <c r="ACY104" s="0"/>
+      <c r="ACZ104" s="0"/>
+      <c r="ADA104" s="0"/>
+      <c r="ADB104" s="0"/>
+      <c r="ADC104" s="0"/>
+      <c r="ADD104" s="0"/>
+      <c r="ADE104" s="0"/>
+      <c r="ADF104" s="0"/>
+      <c r="ADG104" s="0"/>
+      <c r="ADH104" s="0"/>
+      <c r="ADI104" s="0"/>
+      <c r="ADJ104" s="0"/>
+      <c r="ADK104" s="0"/>
+      <c r="ADL104" s="0"/>
+      <c r="ADM104" s="0"/>
+      <c r="ADN104" s="0"/>
+      <c r="ADO104" s="0"/>
+      <c r="ADP104" s="0"/>
+      <c r="ADQ104" s="0"/>
+      <c r="ADR104" s="0"/>
+      <c r="ADS104" s="0"/>
+      <c r="ADT104" s="0"/>
+      <c r="ADU104" s="0"/>
+      <c r="ADV104" s="0"/>
+      <c r="ADW104" s="0"/>
+      <c r="ADX104" s="0"/>
+      <c r="ADY104" s="0"/>
+      <c r="ADZ104" s="0"/>
+      <c r="AEA104" s="0"/>
+      <c r="AEB104" s="0"/>
+      <c r="AEC104" s="0"/>
+      <c r="AED104" s="0"/>
+      <c r="AEE104" s="0"/>
+      <c r="AEF104" s="0"/>
+      <c r="AEG104" s="0"/>
+      <c r="AEH104" s="0"/>
+      <c r="AEI104" s="0"/>
+      <c r="AEJ104" s="0"/>
+      <c r="AEK104" s="0"/>
+      <c r="AEL104" s="0"/>
+      <c r="AEM104" s="0"/>
+      <c r="AEN104" s="0"/>
+      <c r="AEO104" s="0"/>
+      <c r="AEP104" s="0"/>
+      <c r="AEQ104" s="0"/>
+      <c r="AER104" s="0"/>
+      <c r="AES104" s="0"/>
+      <c r="AET104" s="0"/>
+      <c r="AEU104" s="0"/>
+      <c r="AEV104" s="0"/>
+      <c r="AEW104" s="0"/>
+      <c r="AEX104" s="0"/>
+      <c r="AEY104" s="0"/>
+      <c r="AEZ104" s="0"/>
+      <c r="AFA104" s="0"/>
+      <c r="AFB104" s="0"/>
+      <c r="AFC104" s="0"/>
+      <c r="AFD104" s="0"/>
+      <c r="AFE104" s="0"/>
+      <c r="AFF104" s="0"/>
+      <c r="AFG104" s="0"/>
+      <c r="AFH104" s="0"/>
+      <c r="AFI104" s="0"/>
+      <c r="AFJ104" s="0"/>
+      <c r="AFK104" s="0"/>
+      <c r="AFL104" s="0"/>
+      <c r="AFM104" s="0"/>
+      <c r="AFN104" s="0"/>
+      <c r="AFO104" s="0"/>
+      <c r="AFP104" s="0"/>
+      <c r="AFQ104" s="0"/>
+      <c r="AFR104" s="0"/>
+      <c r="AFS104" s="0"/>
+      <c r="AFT104" s="0"/>
+      <c r="AFU104" s="0"/>
+      <c r="AFV104" s="0"/>
+      <c r="AFW104" s="0"/>
+      <c r="AFX104" s="0"/>
+      <c r="AFY104" s="0"/>
+      <c r="AFZ104" s="0"/>
+      <c r="AGA104" s="0"/>
+      <c r="AGB104" s="0"/>
+      <c r="AGC104" s="0"/>
+      <c r="AGD104" s="0"/>
+      <c r="AGE104" s="0"/>
+      <c r="AGF104" s="0"/>
+      <c r="AGG104" s="0"/>
+      <c r="AGH104" s="0"/>
+      <c r="AGI104" s="0"/>
+      <c r="AGJ104" s="0"/>
+      <c r="AGK104" s="0"/>
+      <c r="AGL104" s="0"/>
+      <c r="AGM104" s="0"/>
+      <c r="AGN104" s="0"/>
+      <c r="AGO104" s="0"/>
+      <c r="AGP104" s="0"/>
+      <c r="AGQ104" s="0"/>
+      <c r="AGR104" s="0"/>
+      <c r="AGS104" s="0"/>
+      <c r="AGT104" s="0"/>
+      <c r="AGU104" s="0"/>
+      <c r="AGV104" s="0"/>
+      <c r="AGW104" s="0"/>
+      <c r="AGX104" s="0"/>
+      <c r="AGY104" s="0"/>
+      <c r="AGZ104" s="0"/>
+      <c r="AHA104" s="0"/>
+      <c r="AHB104" s="0"/>
+      <c r="AHC104" s="0"/>
+      <c r="AHD104" s="0"/>
+      <c r="AHE104" s="0"/>
+      <c r="AHF104" s="0"/>
       <c r="AHG104" s="0"/>
       <c r="AHH104" s="0"/>
       <c r="AHI104" s="0"/>
@@ -5421,6 +6121,356 @@
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
+      <c r="TU106" s="0"/>
+      <c r="TV106" s="0"/>
+      <c r="TW106" s="0"/>
+      <c r="TX106" s="0"/>
+      <c r="TY106" s="0"/>
+      <c r="TZ106" s="0"/>
+      <c r="UA106" s="0"/>
+      <c r="UB106" s="0"/>
+      <c r="UC106" s="0"/>
+      <c r="UD106" s="0"/>
+      <c r="UE106" s="0"/>
+      <c r="UF106" s="0"/>
+      <c r="UG106" s="0"/>
+      <c r="UH106" s="0"/>
+      <c r="UI106" s="0"/>
+      <c r="UJ106" s="0"/>
+      <c r="UK106" s="0"/>
+      <c r="UL106" s="0"/>
+      <c r="UM106" s="0"/>
+      <c r="UN106" s="0"/>
+      <c r="UO106" s="0"/>
+      <c r="UP106" s="0"/>
+      <c r="UQ106" s="0"/>
+      <c r="UR106" s="0"/>
+      <c r="US106" s="0"/>
+      <c r="UT106" s="0"/>
+      <c r="UU106" s="0"/>
+      <c r="UV106" s="0"/>
+      <c r="UW106" s="0"/>
+      <c r="UX106" s="0"/>
+      <c r="UY106" s="0"/>
+      <c r="UZ106" s="0"/>
+      <c r="VA106" s="0"/>
+      <c r="VB106" s="0"/>
+      <c r="VC106" s="0"/>
+      <c r="VD106" s="0"/>
+      <c r="VE106" s="0"/>
+      <c r="VF106" s="0"/>
+      <c r="VG106" s="0"/>
+      <c r="VH106" s="0"/>
+      <c r="VI106" s="0"/>
+      <c r="VJ106" s="0"/>
+      <c r="VK106" s="0"/>
+      <c r="VL106" s="0"/>
+      <c r="VM106" s="0"/>
+      <c r="VN106" s="0"/>
+      <c r="VO106" s="0"/>
+      <c r="VP106" s="0"/>
+      <c r="VQ106" s="0"/>
+      <c r="VR106" s="0"/>
+      <c r="VS106" s="0"/>
+      <c r="VT106" s="0"/>
+      <c r="VU106" s="0"/>
+      <c r="VV106" s="0"/>
+      <c r="VW106" s="0"/>
+      <c r="VX106" s="0"/>
+      <c r="VY106" s="0"/>
+      <c r="VZ106" s="0"/>
+      <c r="WA106" s="0"/>
+      <c r="WB106" s="0"/>
+      <c r="WC106" s="0"/>
+      <c r="WD106" s="0"/>
+      <c r="WE106" s="0"/>
+      <c r="WF106" s="0"/>
+      <c r="WG106" s="0"/>
+      <c r="WH106" s="0"/>
+      <c r="WI106" s="0"/>
+      <c r="WJ106" s="0"/>
+      <c r="WK106" s="0"/>
+      <c r="WL106" s="0"/>
+      <c r="WM106" s="0"/>
+      <c r="WN106" s="0"/>
+      <c r="WO106" s="0"/>
+      <c r="WP106" s="0"/>
+      <c r="WQ106" s="0"/>
+      <c r="WR106" s="0"/>
+      <c r="WS106" s="0"/>
+      <c r="WT106" s="0"/>
+      <c r="WU106" s="0"/>
+      <c r="WV106" s="0"/>
+      <c r="WW106" s="0"/>
+      <c r="WX106" s="0"/>
+      <c r="WY106" s="0"/>
+      <c r="WZ106" s="0"/>
+      <c r="XA106" s="0"/>
+      <c r="XB106" s="0"/>
+      <c r="XC106" s="0"/>
+      <c r="XD106" s="0"/>
+      <c r="XE106" s="0"/>
+      <c r="XF106" s="0"/>
+      <c r="XG106" s="0"/>
+      <c r="XH106" s="0"/>
+      <c r="XI106" s="0"/>
+      <c r="XJ106" s="0"/>
+      <c r="XK106" s="0"/>
+      <c r="XL106" s="0"/>
+      <c r="XM106" s="0"/>
+      <c r="XN106" s="0"/>
+      <c r="XO106" s="0"/>
+      <c r="XP106" s="0"/>
+      <c r="XQ106" s="0"/>
+      <c r="XR106" s="0"/>
+      <c r="XS106" s="0"/>
+      <c r="XT106" s="0"/>
+      <c r="XU106" s="0"/>
+      <c r="XV106" s="0"/>
+      <c r="XW106" s="0"/>
+      <c r="XX106" s="0"/>
+      <c r="XY106" s="0"/>
+      <c r="XZ106" s="0"/>
+      <c r="YA106" s="0"/>
+      <c r="YB106" s="0"/>
+      <c r="YC106" s="0"/>
+      <c r="YD106" s="0"/>
+      <c r="YE106" s="0"/>
+      <c r="YF106" s="0"/>
+      <c r="YG106" s="0"/>
+      <c r="YH106" s="0"/>
+      <c r="YI106" s="0"/>
+      <c r="YJ106" s="0"/>
+      <c r="YK106" s="0"/>
+      <c r="YL106" s="0"/>
+      <c r="YM106" s="0"/>
+      <c r="YN106" s="0"/>
+      <c r="YO106" s="0"/>
+      <c r="YP106" s="0"/>
+      <c r="YQ106" s="0"/>
+      <c r="YR106" s="0"/>
+      <c r="YS106" s="0"/>
+      <c r="YT106" s="0"/>
+      <c r="YU106" s="0"/>
+      <c r="YV106" s="0"/>
+      <c r="YW106" s="0"/>
+      <c r="YX106" s="0"/>
+      <c r="YY106" s="0"/>
+      <c r="YZ106" s="0"/>
+      <c r="ZA106" s="0"/>
+      <c r="ZB106" s="0"/>
+      <c r="ZC106" s="0"/>
+      <c r="ZD106" s="0"/>
+      <c r="ZE106" s="0"/>
+      <c r="ZF106" s="0"/>
+      <c r="ZG106" s="0"/>
+      <c r="ZH106" s="0"/>
+      <c r="ZI106" s="0"/>
+      <c r="ZJ106" s="0"/>
+      <c r="ZK106" s="0"/>
+      <c r="ZL106" s="0"/>
+      <c r="ZM106" s="0"/>
+      <c r="ZN106" s="0"/>
+      <c r="ZO106" s="0"/>
+      <c r="ZP106" s="0"/>
+      <c r="ZQ106" s="0"/>
+      <c r="ZR106" s="0"/>
+      <c r="ZS106" s="0"/>
+      <c r="ZT106" s="0"/>
+      <c r="ZU106" s="0"/>
+      <c r="ZV106" s="0"/>
+      <c r="ZW106" s="0"/>
+      <c r="ZX106" s="0"/>
+      <c r="ZY106" s="0"/>
+      <c r="ZZ106" s="0"/>
+      <c r="AAA106" s="0"/>
+      <c r="AAB106" s="0"/>
+      <c r="AAC106" s="0"/>
+      <c r="AAD106" s="0"/>
+      <c r="AAE106" s="0"/>
+      <c r="AAF106" s="0"/>
+      <c r="AAG106" s="0"/>
+      <c r="AAH106" s="0"/>
+      <c r="AAI106" s="0"/>
+      <c r="AAJ106" s="0"/>
+      <c r="AAK106" s="0"/>
+      <c r="AAL106" s="0"/>
+      <c r="AAM106" s="0"/>
+      <c r="AAN106" s="0"/>
+      <c r="AAO106" s="0"/>
+      <c r="AAP106" s="0"/>
+      <c r="AAQ106" s="0"/>
+      <c r="AAR106" s="0"/>
+      <c r="AAS106" s="0"/>
+      <c r="AAT106" s="0"/>
+      <c r="AAU106" s="0"/>
+      <c r="AAV106" s="0"/>
+      <c r="AAW106" s="0"/>
+      <c r="AAX106" s="0"/>
+      <c r="AAY106" s="0"/>
+      <c r="AAZ106" s="0"/>
+      <c r="ABA106" s="0"/>
+      <c r="ABB106" s="0"/>
+      <c r="ABC106" s="0"/>
+      <c r="ABD106" s="0"/>
+      <c r="ABE106" s="0"/>
+      <c r="ABF106" s="0"/>
+      <c r="ABG106" s="0"/>
+      <c r="ABH106" s="0"/>
+      <c r="ABI106" s="0"/>
+      <c r="ABJ106" s="0"/>
+      <c r="ABK106" s="0"/>
+      <c r="ABL106" s="0"/>
+      <c r="ABM106" s="0"/>
+      <c r="ABN106" s="0"/>
+      <c r="ABO106" s="0"/>
+      <c r="ABP106" s="0"/>
+      <c r="ABQ106" s="0"/>
+      <c r="ABR106" s="0"/>
+      <c r="ABS106" s="0"/>
+      <c r="ABT106" s="0"/>
+      <c r="ABU106" s="0"/>
+      <c r="ABV106" s="0"/>
+      <c r="ABW106" s="0"/>
+      <c r="ABX106" s="0"/>
+      <c r="ABY106" s="0"/>
+      <c r="ABZ106" s="0"/>
+      <c r="ACA106" s="0"/>
+      <c r="ACB106" s="0"/>
+      <c r="ACC106" s="0"/>
+      <c r="ACD106" s="0"/>
+      <c r="ACE106" s="0"/>
+      <c r="ACF106" s="0"/>
+      <c r="ACG106" s="0"/>
+      <c r="ACH106" s="0"/>
+      <c r="ACI106" s="0"/>
+      <c r="ACJ106" s="0"/>
+      <c r="ACK106" s="0"/>
+      <c r="ACL106" s="0"/>
+      <c r="ACM106" s="0"/>
+      <c r="ACN106" s="0"/>
+      <c r="ACO106" s="0"/>
+      <c r="ACP106" s="0"/>
+      <c r="ACQ106" s="0"/>
+      <c r="ACR106" s="0"/>
+      <c r="ACS106" s="0"/>
+      <c r="ACT106" s="0"/>
+      <c r="ACU106" s="0"/>
+      <c r="ACV106" s="0"/>
+      <c r="ACW106" s="0"/>
+      <c r="ACX106" s="0"/>
+      <c r="ACY106" s="0"/>
+      <c r="ACZ106" s="0"/>
+      <c r="ADA106" s="0"/>
+      <c r="ADB106" s="0"/>
+      <c r="ADC106" s="0"/>
+      <c r="ADD106" s="0"/>
+      <c r="ADE106" s="0"/>
+      <c r="ADF106" s="0"/>
+      <c r="ADG106" s="0"/>
+      <c r="ADH106" s="0"/>
+      <c r="ADI106" s="0"/>
+      <c r="ADJ106" s="0"/>
+      <c r="ADK106" s="0"/>
+      <c r="ADL106" s="0"/>
+      <c r="ADM106" s="0"/>
+      <c r="ADN106" s="0"/>
+      <c r="ADO106" s="0"/>
+      <c r="ADP106" s="0"/>
+      <c r="ADQ106" s="0"/>
+      <c r="ADR106" s="0"/>
+      <c r="ADS106" s="0"/>
+      <c r="ADT106" s="0"/>
+      <c r="ADU106" s="0"/>
+      <c r="ADV106" s="0"/>
+      <c r="ADW106" s="0"/>
+      <c r="ADX106" s="0"/>
+      <c r="ADY106" s="0"/>
+      <c r="ADZ106" s="0"/>
+      <c r="AEA106" s="0"/>
+      <c r="AEB106" s="0"/>
+      <c r="AEC106" s="0"/>
+      <c r="AED106" s="0"/>
+      <c r="AEE106" s="0"/>
+      <c r="AEF106" s="0"/>
+      <c r="AEG106" s="0"/>
+      <c r="AEH106" s="0"/>
+      <c r="AEI106" s="0"/>
+      <c r="AEJ106" s="0"/>
+      <c r="AEK106" s="0"/>
+      <c r="AEL106" s="0"/>
+      <c r="AEM106" s="0"/>
+      <c r="AEN106" s="0"/>
+      <c r="AEO106" s="0"/>
+      <c r="AEP106" s="0"/>
+      <c r="AEQ106" s="0"/>
+      <c r="AER106" s="0"/>
+      <c r="AES106" s="0"/>
+      <c r="AET106" s="0"/>
+      <c r="AEU106" s="0"/>
+      <c r="AEV106" s="0"/>
+      <c r="AEW106" s="0"/>
+      <c r="AEX106" s="0"/>
+      <c r="AEY106" s="0"/>
+      <c r="AEZ106" s="0"/>
+      <c r="AFA106" s="0"/>
+      <c r="AFB106" s="0"/>
+      <c r="AFC106" s="0"/>
+      <c r="AFD106" s="0"/>
+      <c r="AFE106" s="0"/>
+      <c r="AFF106" s="0"/>
+      <c r="AFG106" s="0"/>
+      <c r="AFH106" s="0"/>
+      <c r="AFI106" s="0"/>
+      <c r="AFJ106" s="0"/>
+      <c r="AFK106" s="0"/>
+      <c r="AFL106" s="0"/>
+      <c r="AFM106" s="0"/>
+      <c r="AFN106" s="0"/>
+      <c r="AFO106" s="0"/>
+      <c r="AFP106" s="0"/>
+      <c r="AFQ106" s="0"/>
+      <c r="AFR106" s="0"/>
+      <c r="AFS106" s="0"/>
+      <c r="AFT106" s="0"/>
+      <c r="AFU106" s="0"/>
+      <c r="AFV106" s="0"/>
+      <c r="AFW106" s="0"/>
+      <c r="AFX106" s="0"/>
+      <c r="AFY106" s="0"/>
+      <c r="AFZ106" s="0"/>
+      <c r="AGA106" s="0"/>
+      <c r="AGB106" s="0"/>
+      <c r="AGC106" s="0"/>
+      <c r="AGD106" s="0"/>
+      <c r="AGE106" s="0"/>
+      <c r="AGF106" s="0"/>
+      <c r="AGG106" s="0"/>
+      <c r="AGH106" s="0"/>
+      <c r="AGI106" s="0"/>
+      <c r="AGJ106" s="0"/>
+      <c r="AGK106" s="0"/>
+      <c r="AGL106" s="0"/>
+      <c r="AGM106" s="0"/>
+      <c r="AGN106" s="0"/>
+      <c r="AGO106" s="0"/>
+      <c r="AGP106" s="0"/>
+      <c r="AGQ106" s="0"/>
+      <c r="AGR106" s="0"/>
+      <c r="AGS106" s="0"/>
+      <c r="AGT106" s="0"/>
+      <c r="AGU106" s="0"/>
+      <c r="AGV106" s="0"/>
+      <c r="AGW106" s="0"/>
+      <c r="AGX106" s="0"/>
+      <c r="AGY106" s="0"/>
+      <c r="AGZ106" s="0"/>
+      <c r="AHA106" s="0"/>
+      <c r="AHB106" s="0"/>
+      <c r="AHC106" s="0"/>
+      <c r="AHD106" s="0"/>
+      <c r="AHE106" s="0"/>
+      <c r="AHF106" s="0"/>
       <c r="AHG106" s="0"/>
       <c r="AHH106" s="0"/>
       <c r="AHI106" s="0"/>
@@ -5967,6 +7017,356 @@
       <c r="V118" s="25"/>
       <c r="W118" s="25"/>
       <c r="X118" s="25"/>
+      <c r="TU118" s="0"/>
+      <c r="TV118" s="0"/>
+      <c r="TW118" s="0"/>
+      <c r="TX118" s="0"/>
+      <c r="TY118" s="0"/>
+      <c r="TZ118" s="0"/>
+      <c r="UA118" s="0"/>
+      <c r="UB118" s="0"/>
+      <c r="UC118" s="0"/>
+      <c r="UD118" s="0"/>
+      <c r="UE118" s="0"/>
+      <c r="UF118" s="0"/>
+      <c r="UG118" s="0"/>
+      <c r="UH118" s="0"/>
+      <c r="UI118" s="0"/>
+      <c r="UJ118" s="0"/>
+      <c r="UK118" s="0"/>
+      <c r="UL118" s="0"/>
+      <c r="UM118" s="0"/>
+      <c r="UN118" s="0"/>
+      <c r="UO118" s="0"/>
+      <c r="UP118" s="0"/>
+      <c r="UQ118" s="0"/>
+      <c r="UR118" s="0"/>
+      <c r="US118" s="0"/>
+      <c r="UT118" s="0"/>
+      <c r="UU118" s="0"/>
+      <c r="UV118" s="0"/>
+      <c r="UW118" s="0"/>
+      <c r="UX118" s="0"/>
+      <c r="UY118" s="0"/>
+      <c r="UZ118" s="0"/>
+      <c r="VA118" s="0"/>
+      <c r="VB118" s="0"/>
+      <c r="VC118" s="0"/>
+      <c r="VD118" s="0"/>
+      <c r="VE118" s="0"/>
+      <c r="VF118" s="0"/>
+      <c r="VG118" s="0"/>
+      <c r="VH118" s="0"/>
+      <c r="VI118" s="0"/>
+      <c r="VJ118" s="0"/>
+      <c r="VK118" s="0"/>
+      <c r="VL118" s="0"/>
+      <c r="VM118" s="0"/>
+      <c r="VN118" s="0"/>
+      <c r="VO118" s="0"/>
+      <c r="VP118" s="0"/>
+      <c r="VQ118" s="0"/>
+      <c r="VR118" s="0"/>
+      <c r="VS118" s="0"/>
+      <c r="VT118" s="0"/>
+      <c r="VU118" s="0"/>
+      <c r="VV118" s="0"/>
+      <c r="VW118" s="0"/>
+      <c r="VX118" s="0"/>
+      <c r="VY118" s="0"/>
+      <c r="VZ118" s="0"/>
+      <c r="WA118" s="0"/>
+      <c r="WB118" s="0"/>
+      <c r="WC118" s="0"/>
+      <c r="WD118" s="0"/>
+      <c r="WE118" s="0"/>
+      <c r="WF118" s="0"/>
+      <c r="WG118" s="0"/>
+      <c r="WH118" s="0"/>
+      <c r="WI118" s="0"/>
+      <c r="WJ118" s="0"/>
+      <c r="WK118" s="0"/>
+      <c r="WL118" s="0"/>
+      <c r="WM118" s="0"/>
+      <c r="WN118" s="0"/>
+      <c r="WO118" s="0"/>
+      <c r="WP118" s="0"/>
+      <c r="WQ118" s="0"/>
+      <c r="WR118" s="0"/>
+      <c r="WS118" s="0"/>
+      <c r="WT118" s="0"/>
+      <c r="WU118" s="0"/>
+      <c r="WV118" s="0"/>
+      <c r="WW118" s="0"/>
+      <c r="WX118" s="0"/>
+      <c r="WY118" s="0"/>
+      <c r="WZ118" s="0"/>
+      <c r="XA118" s="0"/>
+      <c r="XB118" s="0"/>
+      <c r="XC118" s="0"/>
+      <c r="XD118" s="0"/>
+      <c r="XE118" s="0"/>
+      <c r="XF118" s="0"/>
+      <c r="XG118" s="0"/>
+      <c r="XH118" s="0"/>
+      <c r="XI118" s="0"/>
+      <c r="XJ118" s="0"/>
+      <c r="XK118" s="0"/>
+      <c r="XL118" s="0"/>
+      <c r="XM118" s="0"/>
+      <c r="XN118" s="0"/>
+      <c r="XO118" s="0"/>
+      <c r="XP118" s="0"/>
+      <c r="XQ118" s="0"/>
+      <c r="XR118" s="0"/>
+      <c r="XS118" s="0"/>
+      <c r="XT118" s="0"/>
+      <c r="XU118" s="0"/>
+      <c r="XV118" s="0"/>
+      <c r="XW118" s="0"/>
+      <c r="XX118" s="0"/>
+      <c r="XY118" s="0"/>
+      <c r="XZ118" s="0"/>
+      <c r="YA118" s="0"/>
+      <c r="YB118" s="0"/>
+      <c r="YC118" s="0"/>
+      <c r="YD118" s="0"/>
+      <c r="YE118" s="0"/>
+      <c r="YF118" s="0"/>
+      <c r="YG118" s="0"/>
+      <c r="YH118" s="0"/>
+      <c r="YI118" s="0"/>
+      <c r="YJ118" s="0"/>
+      <c r="YK118" s="0"/>
+      <c r="YL118" s="0"/>
+      <c r="YM118" s="0"/>
+      <c r="YN118" s="0"/>
+      <c r="YO118" s="0"/>
+      <c r="YP118" s="0"/>
+      <c r="YQ118" s="0"/>
+      <c r="YR118" s="0"/>
+      <c r="YS118" s="0"/>
+      <c r="YT118" s="0"/>
+      <c r="YU118" s="0"/>
+      <c r="YV118" s="0"/>
+      <c r="YW118" s="0"/>
+      <c r="YX118" s="0"/>
+      <c r="YY118" s="0"/>
+      <c r="YZ118" s="0"/>
+      <c r="ZA118" s="0"/>
+      <c r="ZB118" s="0"/>
+      <c r="ZC118" s="0"/>
+      <c r="ZD118" s="0"/>
+      <c r="ZE118" s="0"/>
+      <c r="ZF118" s="0"/>
+      <c r="ZG118" s="0"/>
+      <c r="ZH118" s="0"/>
+      <c r="ZI118" s="0"/>
+      <c r="ZJ118" s="0"/>
+      <c r="ZK118" s="0"/>
+      <c r="ZL118" s="0"/>
+      <c r="ZM118" s="0"/>
+      <c r="ZN118" s="0"/>
+      <c r="ZO118" s="0"/>
+      <c r="ZP118" s="0"/>
+      <c r="ZQ118" s="0"/>
+      <c r="ZR118" s="0"/>
+      <c r="ZS118" s="0"/>
+      <c r="ZT118" s="0"/>
+      <c r="ZU118" s="0"/>
+      <c r="ZV118" s="0"/>
+      <c r="ZW118" s="0"/>
+      <c r="ZX118" s="0"/>
+      <c r="ZY118" s="0"/>
+      <c r="ZZ118" s="0"/>
+      <c r="AAA118" s="0"/>
+      <c r="AAB118" s="0"/>
+      <c r="AAC118" s="0"/>
+      <c r="AAD118" s="0"/>
+      <c r="AAE118" s="0"/>
+      <c r="AAF118" s="0"/>
+      <c r="AAG118" s="0"/>
+      <c r="AAH118" s="0"/>
+      <c r="AAI118" s="0"/>
+      <c r="AAJ118" s="0"/>
+      <c r="AAK118" s="0"/>
+      <c r="AAL118" s="0"/>
+      <c r="AAM118" s="0"/>
+      <c r="AAN118" s="0"/>
+      <c r="AAO118" s="0"/>
+      <c r="AAP118" s="0"/>
+      <c r="AAQ118" s="0"/>
+      <c r="AAR118" s="0"/>
+      <c r="AAS118" s="0"/>
+      <c r="AAT118" s="0"/>
+      <c r="AAU118" s="0"/>
+      <c r="AAV118" s="0"/>
+      <c r="AAW118" s="0"/>
+      <c r="AAX118" s="0"/>
+      <c r="AAY118" s="0"/>
+      <c r="AAZ118" s="0"/>
+      <c r="ABA118" s="0"/>
+      <c r="ABB118" s="0"/>
+      <c r="ABC118" s="0"/>
+      <c r="ABD118" s="0"/>
+      <c r="ABE118" s="0"/>
+      <c r="ABF118" s="0"/>
+      <c r="ABG118" s="0"/>
+      <c r="ABH118" s="0"/>
+      <c r="ABI118" s="0"/>
+      <c r="ABJ118" s="0"/>
+      <c r="ABK118" s="0"/>
+      <c r="ABL118" s="0"/>
+      <c r="ABM118" s="0"/>
+      <c r="ABN118" s="0"/>
+      <c r="ABO118" s="0"/>
+      <c r="ABP118" s="0"/>
+      <c r="ABQ118" s="0"/>
+      <c r="ABR118" s="0"/>
+      <c r="ABS118" s="0"/>
+      <c r="ABT118" s="0"/>
+      <c r="ABU118" s="0"/>
+      <c r="ABV118" s="0"/>
+      <c r="ABW118" s="0"/>
+      <c r="ABX118" s="0"/>
+      <c r="ABY118" s="0"/>
+      <c r="ABZ118" s="0"/>
+      <c r="ACA118" s="0"/>
+      <c r="ACB118" s="0"/>
+      <c r="ACC118" s="0"/>
+      <c r="ACD118" s="0"/>
+      <c r="ACE118" s="0"/>
+      <c r="ACF118" s="0"/>
+      <c r="ACG118" s="0"/>
+      <c r="ACH118" s="0"/>
+      <c r="ACI118" s="0"/>
+      <c r="ACJ118" s="0"/>
+      <c r="ACK118" s="0"/>
+      <c r="ACL118" s="0"/>
+      <c r="ACM118" s="0"/>
+      <c r="ACN118" s="0"/>
+      <c r="ACO118" s="0"/>
+      <c r="ACP118" s="0"/>
+      <c r="ACQ118" s="0"/>
+      <c r="ACR118" s="0"/>
+      <c r="ACS118" s="0"/>
+      <c r="ACT118" s="0"/>
+      <c r="ACU118" s="0"/>
+      <c r="ACV118" s="0"/>
+      <c r="ACW118" s="0"/>
+      <c r="ACX118" s="0"/>
+      <c r="ACY118" s="0"/>
+      <c r="ACZ118" s="0"/>
+      <c r="ADA118" s="0"/>
+      <c r="ADB118" s="0"/>
+      <c r="ADC118" s="0"/>
+      <c r="ADD118" s="0"/>
+      <c r="ADE118" s="0"/>
+      <c r="ADF118" s="0"/>
+      <c r="ADG118" s="0"/>
+      <c r="ADH118" s="0"/>
+      <c r="ADI118" s="0"/>
+      <c r="ADJ118" s="0"/>
+      <c r="ADK118" s="0"/>
+      <c r="ADL118" s="0"/>
+      <c r="ADM118" s="0"/>
+      <c r="ADN118" s="0"/>
+      <c r="ADO118" s="0"/>
+      <c r="ADP118" s="0"/>
+      <c r="ADQ118" s="0"/>
+      <c r="ADR118" s="0"/>
+      <c r="ADS118" s="0"/>
+      <c r="ADT118" s="0"/>
+      <c r="ADU118" s="0"/>
+      <c r="ADV118" s="0"/>
+      <c r="ADW118" s="0"/>
+      <c r="ADX118" s="0"/>
+      <c r="ADY118" s="0"/>
+      <c r="ADZ118" s="0"/>
+      <c r="AEA118" s="0"/>
+      <c r="AEB118" s="0"/>
+      <c r="AEC118" s="0"/>
+      <c r="AED118" s="0"/>
+      <c r="AEE118" s="0"/>
+      <c r="AEF118" s="0"/>
+      <c r="AEG118" s="0"/>
+      <c r="AEH118" s="0"/>
+      <c r="AEI118" s="0"/>
+      <c r="AEJ118" s="0"/>
+      <c r="AEK118" s="0"/>
+      <c r="AEL118" s="0"/>
+      <c r="AEM118" s="0"/>
+      <c r="AEN118" s="0"/>
+      <c r="AEO118" s="0"/>
+      <c r="AEP118" s="0"/>
+      <c r="AEQ118" s="0"/>
+      <c r="AER118" s="0"/>
+      <c r="AES118" s="0"/>
+      <c r="AET118" s="0"/>
+      <c r="AEU118" s="0"/>
+      <c r="AEV118" s="0"/>
+      <c r="AEW118" s="0"/>
+      <c r="AEX118" s="0"/>
+      <c r="AEY118" s="0"/>
+      <c r="AEZ118" s="0"/>
+      <c r="AFA118" s="0"/>
+      <c r="AFB118" s="0"/>
+      <c r="AFC118" s="0"/>
+      <c r="AFD118" s="0"/>
+      <c r="AFE118" s="0"/>
+      <c r="AFF118" s="0"/>
+      <c r="AFG118" s="0"/>
+      <c r="AFH118" s="0"/>
+      <c r="AFI118" s="0"/>
+      <c r="AFJ118" s="0"/>
+      <c r="AFK118" s="0"/>
+      <c r="AFL118" s="0"/>
+      <c r="AFM118" s="0"/>
+      <c r="AFN118" s="0"/>
+      <c r="AFO118" s="0"/>
+      <c r="AFP118" s="0"/>
+      <c r="AFQ118" s="0"/>
+      <c r="AFR118" s="0"/>
+      <c r="AFS118" s="0"/>
+      <c r="AFT118" s="0"/>
+      <c r="AFU118" s="0"/>
+      <c r="AFV118" s="0"/>
+      <c r="AFW118" s="0"/>
+      <c r="AFX118" s="0"/>
+      <c r="AFY118" s="0"/>
+      <c r="AFZ118" s="0"/>
+      <c r="AGA118" s="0"/>
+      <c r="AGB118" s="0"/>
+      <c r="AGC118" s="0"/>
+      <c r="AGD118" s="0"/>
+      <c r="AGE118" s="0"/>
+      <c r="AGF118" s="0"/>
+      <c r="AGG118" s="0"/>
+      <c r="AGH118" s="0"/>
+      <c r="AGI118" s="0"/>
+      <c r="AGJ118" s="0"/>
+      <c r="AGK118" s="0"/>
+      <c r="AGL118" s="0"/>
+      <c r="AGM118" s="0"/>
+      <c r="AGN118" s="0"/>
+      <c r="AGO118" s="0"/>
+      <c r="AGP118" s="0"/>
+      <c r="AGQ118" s="0"/>
+      <c r="AGR118" s="0"/>
+      <c r="AGS118" s="0"/>
+      <c r="AGT118" s="0"/>
+      <c r="AGU118" s="0"/>
+      <c r="AGV118" s="0"/>
+      <c r="AGW118" s="0"/>
+      <c r="AGX118" s="0"/>
+      <c r="AGY118" s="0"/>
+      <c r="AGZ118" s="0"/>
+      <c r="AHA118" s="0"/>
+      <c r="AHB118" s="0"/>
+      <c r="AHC118" s="0"/>
+      <c r="AHD118" s="0"/>
+      <c r="AHE118" s="0"/>
+      <c r="AHF118" s="0"/>
       <c r="AHG118" s="0"/>
       <c r="AHH118" s="0"/>
       <c r="AHI118" s="0"/>
@@ -7246,6 +8646,356 @@
       <c r="V152" s="25"/>
       <c r="W152" s="25"/>
       <c r="X152" s="25"/>
+      <c r="TU152" s="0"/>
+      <c r="TV152" s="0"/>
+      <c r="TW152" s="0"/>
+      <c r="TX152" s="0"/>
+      <c r="TY152" s="0"/>
+      <c r="TZ152" s="0"/>
+      <c r="UA152" s="0"/>
+      <c r="UB152" s="0"/>
+      <c r="UC152" s="0"/>
+      <c r="UD152" s="0"/>
+      <c r="UE152" s="0"/>
+      <c r="UF152" s="0"/>
+      <c r="UG152" s="0"/>
+      <c r="UH152" s="0"/>
+      <c r="UI152" s="0"/>
+      <c r="UJ152" s="0"/>
+      <c r="UK152" s="0"/>
+      <c r="UL152" s="0"/>
+      <c r="UM152" s="0"/>
+      <c r="UN152" s="0"/>
+      <c r="UO152" s="0"/>
+      <c r="UP152" s="0"/>
+      <c r="UQ152" s="0"/>
+      <c r="UR152" s="0"/>
+      <c r="US152" s="0"/>
+      <c r="UT152" s="0"/>
+      <c r="UU152" s="0"/>
+      <c r="UV152" s="0"/>
+      <c r="UW152" s="0"/>
+      <c r="UX152" s="0"/>
+      <c r="UY152" s="0"/>
+      <c r="UZ152" s="0"/>
+      <c r="VA152" s="0"/>
+      <c r="VB152" s="0"/>
+      <c r="VC152" s="0"/>
+      <c r="VD152" s="0"/>
+      <c r="VE152" s="0"/>
+      <c r="VF152" s="0"/>
+      <c r="VG152" s="0"/>
+      <c r="VH152" s="0"/>
+      <c r="VI152" s="0"/>
+      <c r="VJ152" s="0"/>
+      <c r="VK152" s="0"/>
+      <c r="VL152" s="0"/>
+      <c r="VM152" s="0"/>
+      <c r="VN152" s="0"/>
+      <c r="VO152" s="0"/>
+      <c r="VP152" s="0"/>
+      <c r="VQ152" s="0"/>
+      <c r="VR152" s="0"/>
+      <c r="VS152" s="0"/>
+      <c r="VT152" s="0"/>
+      <c r="VU152" s="0"/>
+      <c r="VV152" s="0"/>
+      <c r="VW152" s="0"/>
+      <c r="VX152" s="0"/>
+      <c r="VY152" s="0"/>
+      <c r="VZ152" s="0"/>
+      <c r="WA152" s="0"/>
+      <c r="WB152" s="0"/>
+      <c r="WC152" s="0"/>
+      <c r="WD152" s="0"/>
+      <c r="WE152" s="0"/>
+      <c r="WF152" s="0"/>
+      <c r="WG152" s="0"/>
+      <c r="WH152" s="0"/>
+      <c r="WI152" s="0"/>
+      <c r="WJ152" s="0"/>
+      <c r="WK152" s="0"/>
+      <c r="WL152" s="0"/>
+      <c r="WM152" s="0"/>
+      <c r="WN152" s="0"/>
+      <c r="WO152" s="0"/>
+      <c r="WP152" s="0"/>
+      <c r="WQ152" s="0"/>
+      <c r="WR152" s="0"/>
+      <c r="WS152" s="0"/>
+      <c r="WT152" s="0"/>
+      <c r="WU152" s="0"/>
+      <c r="WV152" s="0"/>
+      <c r="WW152" s="0"/>
+      <c r="WX152" s="0"/>
+      <c r="WY152" s="0"/>
+      <c r="WZ152" s="0"/>
+      <c r="XA152" s="0"/>
+      <c r="XB152" s="0"/>
+      <c r="XC152" s="0"/>
+      <c r="XD152" s="0"/>
+      <c r="XE152" s="0"/>
+      <c r="XF152" s="0"/>
+      <c r="XG152" s="0"/>
+      <c r="XH152" s="0"/>
+      <c r="XI152" s="0"/>
+      <c r="XJ152" s="0"/>
+      <c r="XK152" s="0"/>
+      <c r="XL152" s="0"/>
+      <c r="XM152" s="0"/>
+      <c r="XN152" s="0"/>
+      <c r="XO152" s="0"/>
+      <c r="XP152" s="0"/>
+      <c r="XQ152" s="0"/>
+      <c r="XR152" s="0"/>
+      <c r="XS152" s="0"/>
+      <c r="XT152" s="0"/>
+      <c r="XU152" s="0"/>
+      <c r="XV152" s="0"/>
+      <c r="XW152" s="0"/>
+      <c r="XX152" s="0"/>
+      <c r="XY152" s="0"/>
+      <c r="XZ152" s="0"/>
+      <c r="YA152" s="0"/>
+      <c r="YB152" s="0"/>
+      <c r="YC152" s="0"/>
+      <c r="YD152" s="0"/>
+      <c r="YE152" s="0"/>
+      <c r="YF152" s="0"/>
+      <c r="YG152" s="0"/>
+      <c r="YH152" s="0"/>
+      <c r="YI152" s="0"/>
+      <c r="YJ152" s="0"/>
+      <c r="YK152" s="0"/>
+      <c r="YL152" s="0"/>
+      <c r="YM152" s="0"/>
+      <c r="YN152" s="0"/>
+      <c r="YO152" s="0"/>
+      <c r="YP152" s="0"/>
+      <c r="YQ152" s="0"/>
+      <c r="YR152" s="0"/>
+      <c r="YS152" s="0"/>
+      <c r="YT152" s="0"/>
+      <c r="YU152" s="0"/>
+      <c r="YV152" s="0"/>
+      <c r="YW152" s="0"/>
+      <c r="YX152" s="0"/>
+      <c r="YY152" s="0"/>
+      <c r="YZ152" s="0"/>
+      <c r="ZA152" s="0"/>
+      <c r="ZB152" s="0"/>
+      <c r="ZC152" s="0"/>
+      <c r="ZD152" s="0"/>
+      <c r="ZE152" s="0"/>
+      <c r="ZF152" s="0"/>
+      <c r="ZG152" s="0"/>
+      <c r="ZH152" s="0"/>
+      <c r="ZI152" s="0"/>
+      <c r="ZJ152" s="0"/>
+      <c r="ZK152" s="0"/>
+      <c r="ZL152" s="0"/>
+      <c r="ZM152" s="0"/>
+      <c r="ZN152" s="0"/>
+      <c r="ZO152" s="0"/>
+      <c r="ZP152" s="0"/>
+      <c r="ZQ152" s="0"/>
+      <c r="ZR152" s="0"/>
+      <c r="ZS152" s="0"/>
+      <c r="ZT152" s="0"/>
+      <c r="ZU152" s="0"/>
+      <c r="ZV152" s="0"/>
+      <c r="ZW152" s="0"/>
+      <c r="ZX152" s="0"/>
+      <c r="ZY152" s="0"/>
+      <c r="ZZ152" s="0"/>
+      <c r="AAA152" s="0"/>
+      <c r="AAB152" s="0"/>
+      <c r="AAC152" s="0"/>
+      <c r="AAD152" s="0"/>
+      <c r="AAE152" s="0"/>
+      <c r="AAF152" s="0"/>
+      <c r="AAG152" s="0"/>
+      <c r="AAH152" s="0"/>
+      <c r="AAI152" s="0"/>
+      <c r="AAJ152" s="0"/>
+      <c r="AAK152" s="0"/>
+      <c r="AAL152" s="0"/>
+      <c r="AAM152" s="0"/>
+      <c r="AAN152" s="0"/>
+      <c r="AAO152" s="0"/>
+      <c r="AAP152" s="0"/>
+      <c r="AAQ152" s="0"/>
+      <c r="AAR152" s="0"/>
+      <c r="AAS152" s="0"/>
+      <c r="AAT152" s="0"/>
+      <c r="AAU152" s="0"/>
+      <c r="AAV152" s="0"/>
+      <c r="AAW152" s="0"/>
+      <c r="AAX152" s="0"/>
+      <c r="AAY152" s="0"/>
+      <c r="AAZ152" s="0"/>
+      <c r="ABA152" s="0"/>
+      <c r="ABB152" s="0"/>
+      <c r="ABC152" s="0"/>
+      <c r="ABD152" s="0"/>
+      <c r="ABE152" s="0"/>
+      <c r="ABF152" s="0"/>
+      <c r="ABG152" s="0"/>
+      <c r="ABH152" s="0"/>
+      <c r="ABI152" s="0"/>
+      <c r="ABJ152" s="0"/>
+      <c r="ABK152" s="0"/>
+      <c r="ABL152" s="0"/>
+      <c r="ABM152" s="0"/>
+      <c r="ABN152" s="0"/>
+      <c r="ABO152" s="0"/>
+      <c r="ABP152" s="0"/>
+      <c r="ABQ152" s="0"/>
+      <c r="ABR152" s="0"/>
+      <c r="ABS152" s="0"/>
+      <c r="ABT152" s="0"/>
+      <c r="ABU152" s="0"/>
+      <c r="ABV152" s="0"/>
+      <c r="ABW152" s="0"/>
+      <c r="ABX152" s="0"/>
+      <c r="ABY152" s="0"/>
+      <c r="ABZ152" s="0"/>
+      <c r="ACA152" s="0"/>
+      <c r="ACB152" s="0"/>
+      <c r="ACC152" s="0"/>
+      <c r="ACD152" s="0"/>
+      <c r="ACE152" s="0"/>
+      <c r="ACF152" s="0"/>
+      <c r="ACG152" s="0"/>
+      <c r="ACH152" s="0"/>
+      <c r="ACI152" s="0"/>
+      <c r="ACJ152" s="0"/>
+      <c r="ACK152" s="0"/>
+      <c r="ACL152" s="0"/>
+      <c r="ACM152" s="0"/>
+      <c r="ACN152" s="0"/>
+      <c r="ACO152" s="0"/>
+      <c r="ACP152" s="0"/>
+      <c r="ACQ152" s="0"/>
+      <c r="ACR152" s="0"/>
+      <c r="ACS152" s="0"/>
+      <c r="ACT152" s="0"/>
+      <c r="ACU152" s="0"/>
+      <c r="ACV152" s="0"/>
+      <c r="ACW152" s="0"/>
+      <c r="ACX152" s="0"/>
+      <c r="ACY152" s="0"/>
+      <c r="ACZ152" s="0"/>
+      <c r="ADA152" s="0"/>
+      <c r="ADB152" s="0"/>
+      <c r="ADC152" s="0"/>
+      <c r="ADD152" s="0"/>
+      <c r="ADE152" s="0"/>
+      <c r="ADF152" s="0"/>
+      <c r="ADG152" s="0"/>
+      <c r="ADH152" s="0"/>
+      <c r="ADI152" s="0"/>
+      <c r="ADJ152" s="0"/>
+      <c r="ADK152" s="0"/>
+      <c r="ADL152" s="0"/>
+      <c r="ADM152" s="0"/>
+      <c r="ADN152" s="0"/>
+      <c r="ADO152" s="0"/>
+      <c r="ADP152" s="0"/>
+      <c r="ADQ152" s="0"/>
+      <c r="ADR152" s="0"/>
+      <c r="ADS152" s="0"/>
+      <c r="ADT152" s="0"/>
+      <c r="ADU152" s="0"/>
+      <c r="ADV152" s="0"/>
+      <c r="ADW152" s="0"/>
+      <c r="ADX152" s="0"/>
+      <c r="ADY152" s="0"/>
+      <c r="ADZ152" s="0"/>
+      <c r="AEA152" s="0"/>
+      <c r="AEB152" s="0"/>
+      <c r="AEC152" s="0"/>
+      <c r="AED152" s="0"/>
+      <c r="AEE152" s="0"/>
+      <c r="AEF152" s="0"/>
+      <c r="AEG152" s="0"/>
+      <c r="AEH152" s="0"/>
+      <c r="AEI152" s="0"/>
+      <c r="AEJ152" s="0"/>
+      <c r="AEK152" s="0"/>
+      <c r="AEL152" s="0"/>
+      <c r="AEM152" s="0"/>
+      <c r="AEN152" s="0"/>
+      <c r="AEO152" s="0"/>
+      <c r="AEP152" s="0"/>
+      <c r="AEQ152" s="0"/>
+      <c r="AER152" s="0"/>
+      <c r="AES152" s="0"/>
+      <c r="AET152" s="0"/>
+      <c r="AEU152" s="0"/>
+      <c r="AEV152" s="0"/>
+      <c r="AEW152" s="0"/>
+      <c r="AEX152" s="0"/>
+      <c r="AEY152" s="0"/>
+      <c r="AEZ152" s="0"/>
+      <c r="AFA152" s="0"/>
+      <c r="AFB152" s="0"/>
+      <c r="AFC152" s="0"/>
+      <c r="AFD152" s="0"/>
+      <c r="AFE152" s="0"/>
+      <c r="AFF152" s="0"/>
+      <c r="AFG152" s="0"/>
+      <c r="AFH152" s="0"/>
+      <c r="AFI152" s="0"/>
+      <c r="AFJ152" s="0"/>
+      <c r="AFK152" s="0"/>
+      <c r="AFL152" s="0"/>
+      <c r="AFM152" s="0"/>
+      <c r="AFN152" s="0"/>
+      <c r="AFO152" s="0"/>
+      <c r="AFP152" s="0"/>
+      <c r="AFQ152" s="0"/>
+      <c r="AFR152" s="0"/>
+      <c r="AFS152" s="0"/>
+      <c r="AFT152" s="0"/>
+      <c r="AFU152" s="0"/>
+      <c r="AFV152" s="0"/>
+      <c r="AFW152" s="0"/>
+      <c r="AFX152" s="0"/>
+      <c r="AFY152" s="0"/>
+      <c r="AFZ152" s="0"/>
+      <c r="AGA152" s="0"/>
+      <c r="AGB152" s="0"/>
+      <c r="AGC152" s="0"/>
+      <c r="AGD152" s="0"/>
+      <c r="AGE152" s="0"/>
+      <c r="AGF152" s="0"/>
+      <c r="AGG152" s="0"/>
+      <c r="AGH152" s="0"/>
+      <c r="AGI152" s="0"/>
+      <c r="AGJ152" s="0"/>
+      <c r="AGK152" s="0"/>
+      <c r="AGL152" s="0"/>
+      <c r="AGM152" s="0"/>
+      <c r="AGN152" s="0"/>
+      <c r="AGO152" s="0"/>
+      <c r="AGP152" s="0"/>
+      <c r="AGQ152" s="0"/>
+      <c r="AGR152" s="0"/>
+      <c r="AGS152" s="0"/>
+      <c r="AGT152" s="0"/>
+      <c r="AGU152" s="0"/>
+      <c r="AGV152" s="0"/>
+      <c r="AGW152" s="0"/>
+      <c r="AGX152" s="0"/>
+      <c r="AGY152" s="0"/>
+      <c r="AGZ152" s="0"/>
+      <c r="AHA152" s="0"/>
+      <c r="AHB152" s="0"/>
+      <c r="AHC152" s="0"/>
+      <c r="AHD152" s="0"/>
+      <c r="AHE152" s="0"/>
+      <c r="AHF152" s="0"/>
       <c r="AHG152" s="0"/>
       <c r="AHH152" s="0"/>
       <c r="AHI152" s="0"/>
@@ -7688,7 +9438,6 @@
         <v>16000000000</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
